--- a/Crawling/music/crawled_data/live_soribada/live_soribada_20220404_20220422_114105.xlsx
+++ b/Crawling/music/crawled_data/live_soribada/live_soribada_20220404_20220422_114105.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>soribada</t>
+    <t>Soribada</t>
   </si>
   <si>
     <t>2022-04-04_07:10</t>
